--- a/장르별 소구점 및 발화사례.xlsx
+++ b/장르별 소구점 및 발화사례.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suchan/study/파이널 프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE725DD-C679-E847-8BA0-DC2EB32FA3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE41FB3-5AB5-D443-AD66-274C3E0AEA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{BD78A98E-6737-5A4A-B3E0-3A5122173AFD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>배우</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,11 +193,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Such marvelous storytelling and spot on music bgm just blend so well to the overall plot. Wonderfully done in such a heart touching way.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If I had to summarize the plot in one sentence, it would be: two wounded souls meet each other and change each other's lives by helping to heal each other's traumas.</t>
+    <t>연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소(Kdrama)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I had to summarize the plot in one sentence, it would be: two wounded souls meet each other and change each other's lives by helping to heal each other's traumas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he delivered a special role, portraying a character with autism and who also suffered from selective mutism in his childhood years.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not sure if I agree, most characters could not have been more two dimensional. Though certainly the actors did an excellent job showing a wide array of authentic emotions.(dimensional character)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he childlike locations and games present a drastic contract to the brutality of the scenarios the characters are facing.(brutality game)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stranger From Hell is masterclass in storytelling. With a solid soundtrack and a wonderful cast,(solid soundtrack)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The concept of feaudal Japan with lone wolf samurajs and zombies Is a cool one.But like every japanese/Asien zombie production they fail 100% and makes It look like comedy instead of horror.All these overacted twitching transformation scenes are hilarious.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangster" was my frav character.... could have done so much more with him....but overall worth a watch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All of Us Are Dead takes place in a high school in South Korea that becomes the center of a zombie apocalypse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This drama just has the perfect mix of drama, suspense, mistery and action while still delivering social criticism regarding specially human nature and how crushing the capitalistic system is for the ones at the bottom.(suspense action)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,81 +394,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8D20E5-34C3-DE43-BE1C-B28EFB2D3165}">
-  <dimension ref="E4:J79"/>
+  <dimension ref="E4:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:J41"/>
+    <sheetView tabSelected="1" topLeftCell="D55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74:J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -758,17 +780,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:10" ht="30">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="5:10" ht="30">
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -780,147 +802,147 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="5:10" ht="30">
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="5:10" ht="30">
-      <c r="E7" s="9">
+      <c r="E7" s="2">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="5:10" ht="30">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="5:10" ht="30">
-      <c r="E9" s="9">
+      <c r="E9" s="2">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="5:10" ht="30">
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="5:10" ht="30">
-      <c r="E11" s="9">
+      <c r="E11" s="2">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="5:10" ht="30">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="5:10" ht="30">
-      <c r="E13" s="9">
+      <c r="E13" s="2">
         <v>0.1105</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="5:10" ht="30">
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="5:10" ht="30">
-      <c r="E15" s="9">
+      <c r="E15" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="5:10" ht="30">
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="5:10" ht="30">
-      <c r="E17" s="9">
+      <c r="E17" s="2">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="20" spans="5:10" ht="30">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="5:10" ht="30">
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -932,147 +954,147 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="5:10" ht="30">
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="5:10" ht="30">
-      <c r="E23" s="9">
+      <c r="E23" s="2">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="5:10" ht="30">
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="5:10" ht="30">
-      <c r="E25" s="9">
+      <c r="E25" s="2">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="5:10" ht="30">
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="5:10" ht="30">
-      <c r="E27" s="9">
+      <c r="E27" s="2">
         <v>0.22009999999999999</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="5:10" ht="30">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="5:10" ht="30">
-      <c r="E29" s="9">
+      <c r="E29" s="2">
         <v>0.15090000000000001</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="5:10" ht="30">
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="5:10" ht="30">
-      <c r="E31" s="9">
+      <c r="E31" s="2">
         <v>5.11E-2</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="5:10" ht="30">
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="5:10" ht="30">
-      <c r="E33" s="9">
+      <c r="E33" s="2">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="17"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="36" spans="5:10" ht="30">
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="5:10" ht="30">
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="11" t="s">
@@ -1084,125 +1106,125 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="5:10" ht="30">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="5:10" ht="30">
-      <c r="E39" s="9">
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="E39" s="2">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
     </row>
     <row r="40" spans="5:10" ht="30">
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="5:10" ht="30">
-      <c r="E41" s="9">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
+      <c r="E41" s="2">
+        <v>0.1207</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="5:10" ht="30">
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="5:10" ht="30">
-      <c r="E43" s="9">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17"/>
+      <c r="E43" s="2">
+        <v>9.69E-2</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="5:10" ht="30">
-      <c r="E44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="14"/>
+      <c r="E44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="5:10" ht="30">
-      <c r="E45" s="9">
-        <v>0.1105</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
+      <c r="E45" s="2">
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="5:10" ht="30">
-      <c r="E46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="14"/>
+      <c r="E46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="47" spans="5:10" ht="30">
-      <c r="E47" s="9">
-        <v>7.2300000000000003E-2</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="17"/>
+      <c r="E47" s="2">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="50" spans="5:10" ht="30">
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
     </row>
     <row r="51" spans="5:10" ht="30">
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="11" t="s">
@@ -1214,149 +1236,149 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="5:10" ht="30">
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="14"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
     </row>
     <row r="53" spans="5:10" ht="30">
-      <c r="E53" s="9">
+      <c r="E53" s="2">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="17"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="5:10" ht="30">
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
     </row>
     <row r="55" spans="5:10" ht="30">
-      <c r="E55" s="9">
+      <c r="E55" s="2">
         <v>0.1142</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="17"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" spans="5:10" ht="30">
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
     </row>
     <row r="57" spans="5:10" ht="30">
-      <c r="E57" s="9">
+      <c r="E57" s="2">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58" spans="5:10" ht="30">
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="14"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
     </row>
     <row r="59" spans="5:10" ht="30">
-      <c r="E59" s="9">
+      <c r="E59" s="2">
         <v>0.191</v>
       </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="17"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" spans="5:10" ht="30">
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
     </row>
     <row r="61" spans="5:10" ht="30">
-      <c r="E61" s="9">
+      <c r="E61" s="2">
         <v>2.06E-2</v>
       </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="17"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="9"/>
     </row>
     <row r="62" spans="5:10" ht="30">
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
     </row>
     <row r="63" spans="5:10" ht="30">
-      <c r="E63" s="9">
+      <c r="E63" s="2">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="17"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="66" spans="5:10" ht="30">
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
     </row>
     <row r="67" spans="5:10" ht="30">
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="11" t="s">
@@ -1368,111 +1390,193 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="5:10" ht="30">
-      <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
+      <c r="E68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="5:10" ht="30">
-      <c r="E69" s="9"/>
+      <c r="E69" s="2">
+        <v>9.69E-2</v>
+      </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" spans="5:10" ht="30">
-      <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
+      <c r="E70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="5:10" ht="30">
-      <c r="E71" s="9"/>
+      <c r="E71" s="2">
+        <v>5.5300000000000002E-2</v>
+      </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="9"/>
     </row>
     <row r="72" spans="5:10" ht="30">
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
+      <c r="E72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="5:10" ht="30">
-      <c r="E73" s="9"/>
+      <c r="E73" s="2">
+        <v>0.1986</v>
+      </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="9"/>
     </row>
     <row r="74" spans="5:10" ht="30">
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
+      <c r="E74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="5:10" ht="30">
-      <c r="E75" s="9"/>
+      <c r="E75" s="2">
+        <v>0.1133</v>
+      </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="9"/>
     </row>
     <row r="76" spans="5:10" ht="30">
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
+      <c r="E76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="5:10" ht="30">
-      <c r="E77" s="9"/>
+      <c r="E77" s="2">
+        <v>2.2200000000000001E-2</v>
+      </c>
       <c r="F77" s="7"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="9"/>
     </row>
     <row r="78" spans="5:10" ht="30">
-      <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
+      <c r="E78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="5:10" ht="30">
-      <c r="E79" s="9"/>
+      <c r="E79" s="2">
+        <v>0.31269999999999998</v>
+      </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="9"/>
+    </row>
+    <row r="80" spans="5:10" ht="30">
+      <c r="E80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="5:10" ht="30">
+      <c r="E81" s="2">
+        <v>0.1953</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="5:10" ht="30">
+      <c r="E82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="5:10" ht="30">
+      <c r="E83" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E6:E16">
     <sortCondition ref="E6:E16"/>
   </sortState>
-  <mergeCells count="39">
-    <mergeCell ref="F8:J9"/>
-    <mergeCell ref="F70:J71"/>
-    <mergeCell ref="F72:J73"/>
-    <mergeCell ref="F74:J75"/>
-    <mergeCell ref="F76:J77"/>
+  <mergeCells count="41">
+    <mergeCell ref="F80:J81"/>
+    <mergeCell ref="F82:J83"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="F6:J7"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="F78:J79"/>
     <mergeCell ref="F26:J27"/>
     <mergeCell ref="F58:J59"/>
@@ -1489,6 +1593,11 @@
     <mergeCell ref="F37:J37"/>
     <mergeCell ref="F38:J39"/>
     <mergeCell ref="F40:J41"/>
+    <mergeCell ref="F8:J9"/>
+    <mergeCell ref="F70:J71"/>
+    <mergeCell ref="F72:J73"/>
+    <mergeCell ref="F74:J75"/>
+    <mergeCell ref="F76:J77"/>
     <mergeCell ref="F42:J43"/>
     <mergeCell ref="F44:J45"/>
     <mergeCell ref="F46:J47"/>
@@ -1500,13 +1609,6 @@
     <mergeCell ref="F12:J13"/>
     <mergeCell ref="F14:J15"/>
     <mergeCell ref="F16:J17"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="F6:J7"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="F5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/장르별 소구점 및 발화사례.xlsx
+++ b/장르별 소구점 및 발화사례.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suchan/study/파이널 프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE41FB3-5AB5-D443-AD66-274C3E0AEA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFA9762-C1F5-1144-8FB1-45D834CD8DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{BD78A98E-6737-5A4A-B3E0-3A5122173AFD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{BD78A98E-6737-5A4A-B3E0-3A5122173AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,15 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enter Go Moon Young. She is the exact opposite of selfless Gang Tae. She's bold, selfish, unapologetic, and demanding with everything around her. If she likes something, she will stop at nothing to own it. . .which includes Gang Tae.
-roco(플롯+):The storyline was wonderfully perplexing, with each dramatic turn adding all these unexpected twists.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:There was even an unbalance of storytelling and mood: the whole drama was mature but then we have the childhood connection, really? That didnt even add anything to the story so why was it even in there? plus the way everyone was connected?? PD is related to the wife of hongs best friend and PDs editor is the son of he guy who worked at hongs company and PD went to school with hyejin and they all meet up in this one small town i mean ?? really ?? It felt unfitting for a show that was otherwise serious and realistic.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>My friend discussed with me how there are some powerful scenes where there aren't any dialogues but the expressions convey their feelings so well and I'd agree with that.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +229,14 @@
   </si>
   <si>
     <t>This drama just has the perfect mix of drama, suspense, mistery and action while still delivering social criticism regarding specially human nature and how crushing the capitalistic system is for the ones at the bottom.(suspense action)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter Go Moon Young. She is the exact opposite of selfless Gang Tae. She's bold, selfish, unapologetic, and demanding with everything around her. If she likes something, she will stop at nothing to own it. . .which includes Gang Tae.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소구사례</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,6 +427,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,9 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8D20E5-34C3-DE43-BE1C-B28EFB2D3165}">
   <dimension ref="E4:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74:J75"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -793,19 +792,21 @@
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="5:10" ht="30">
       <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -823,7 +824,7 @@
     </row>
     <row r="8" spans="5:10" ht="30">
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
@@ -845,10 +846,10 @@
     </row>
     <row r="10" spans="5:10" ht="30">
       <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -867,11 +868,9 @@
     </row>
     <row r="12" spans="5:10" ht="30">
       <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -879,7 +878,7 @@
     </row>
     <row r="13" spans="5:10" ht="30">
       <c r="E13" s="2">
-        <v>0.1105</v>
+        <v>0.1802</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
@@ -889,7 +888,7 @@
     </row>
     <row r="14" spans="5:10" ht="30">
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>28</v>
@@ -913,8 +912,8 @@
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
+      <c r="F16" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -945,13 +944,13 @@
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="5:10" ht="30">
       <c r="E22" s="1" t="s">
@@ -1097,42 +1096,42 @@
       <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="5:10" ht="30">
       <c r="E38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="5:10" ht="30">
       <c r="E39" s="2">
         <v>0.11550000000000001</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="5:10" ht="30">
       <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -1171,10 +1170,10 @@
     </row>
     <row r="44" spans="5:10" ht="30">
       <c r="E44" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -1196,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -1227,13 +1226,13 @@
       <c r="E51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="5:10" ht="30">
       <c r="E52" s="1" t="s">
@@ -1381,20 +1380,20 @@
       <c r="E67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" spans="5:10" ht="30">
       <c r="E68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -1416,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -1435,10 +1434,10 @@
     </row>
     <row r="72" spans="5:10" ht="30">
       <c r="E72" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -1457,10 +1456,10 @@
     </row>
     <row r="74" spans="5:10" ht="30">
       <c r="E74" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -1482,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -1504,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -1543,10 +1542,10 @@
     </row>
     <row r="82" spans="5:10" ht="30">
       <c r="E82" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -1573,6 +1572,10 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="F22:J23"/>
+    <mergeCell ref="F56:J57"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J39"/>
+    <mergeCell ref="F40:J41"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="F6:J7"/>
     <mergeCell ref="F10:J11"/>
@@ -1589,10 +1592,6 @@
     <mergeCell ref="F51:J51"/>
     <mergeCell ref="F52:J53"/>
     <mergeCell ref="F54:J55"/>
-    <mergeCell ref="F56:J57"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J39"/>
-    <mergeCell ref="F40:J41"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="F70:J71"/>
     <mergeCell ref="F72:J73"/>
